--- a/data/trans_orig/IP16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D089A2-3807-4322-9BD8-A04E4DCDF524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43936DE7-8407-4597-BFB8-778943317D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1CEF6A61-6AE9-40D6-B0A7-A5D80735DE46}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EC495F45-3919-4A1E-8D49-AAE6ACB5E677}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>10,65%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
     <t>92,73%</t>
   </si>
   <si>
@@ -359,6 +359,54 @@
     <t>10,08%</t>
   </si>
   <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
     <t>98,36%</t>
   </si>
   <si>
@@ -401,54 +449,6 @@
     <t>6,65%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
     <t>96,16%</t>
   </si>
   <si>
@@ -554,6 +554,54 @@
     <t>7,34%</t>
   </si>
   <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
     <t>87,1%</t>
   </si>
   <si>
@@ -590,54 +638,6 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
     <t>94,96%</t>
   </si>
   <si>
@@ -737,6 +737,39 @@
     <t>10,98%</t>
   </si>
   <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>95,68%</t>
   </si>
   <si>
@@ -783,39 +816,6 @@
   </si>
   <si>
     <t>6,69%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
   </si>
   <si>
     <t>96,69%</t>
@@ -1249,7 +1249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EBB307-3680-4A3A-9FB1-76FE208898B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06BC9CB-C62D-4214-BD03-C62945CFD851}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>51502</v>
+        <v>39584</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1537,10 +1537,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>42870</v>
+        <v>31343</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1552,10 +1552,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="N7" s="7">
-        <v>94372</v>
+        <v>70927</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1573,10 +1573,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>3553</v>
+        <v>2806</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1588,10 +1588,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1811</v>
+        <v>1360</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1603,10 +1603,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>5364</v>
+        <v>4166</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1624,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1639,10 +1639,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1654,10 +1654,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1677,10 +1677,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>39584</v>
+        <v>51502</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1692,10 +1692,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>31343</v>
+        <v>42870</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1707,10 +1707,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="N10" s="7">
-        <v>70927</v>
+        <v>94372</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1728,10 +1728,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>2806</v>
+        <v>3553</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1743,10 +1743,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1360</v>
+        <v>1811</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1758,10 +1758,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>4166</v>
+        <v>5364</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1779,10 +1779,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1794,10 +1794,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1809,10 +1809,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1995,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741BFC6-1DBB-4C5E-8151-AE2DFBEE8725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8CA3BA-CDA8-4EC8-B0B7-125E4384460C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2268,10 +2268,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>36320</v>
+        <v>56489</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2280,13 +2280,13 @@
         <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>40973</v>
+        <v>42459</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>108</v>
@@ -2295,22 +2295,22 @@
         <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
+        <v>135</v>
+      </c>
+      <c r="N7" s="7">
+        <v>98949</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="7">
-        <v>77293</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,46 +2322,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>607</v>
+        <v>887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>1379</v>
+        <v>3308</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>1986</v>
+        <v>4194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>36927</v>
+        <v>57376</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2385,10 +2385,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>42352</v>
+        <v>45767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2400,10 +2400,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="N9" s="7">
-        <v>79279</v>
+        <v>103143</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2423,49 +2423,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>56489</v>
+        <v>36320</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" s="7">
-        <v>42459</v>
+        <v>40973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="N10" s="7">
-        <v>98949</v>
+        <v>77293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,37 +2477,37 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>887</v>
+        <v>607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>3308</v>
+        <v>1379</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>132</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>4194</v>
+        <v>1986</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>133</v>
@@ -2525,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>57376</v>
+        <v>36927</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2540,10 +2540,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>45767</v>
+        <v>42352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2555,10 +2555,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="N12" s="7">
-        <v>103143</v>
+        <v>79279</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697421CF-0371-416C-BD53-EC1CE9836581}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1221D-20F8-4467-8086-8BBE49E6341A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2886,7 +2886,7 @@
         <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7">
         <v>130</v>
@@ -2934,7 +2934,7 @@
         <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>167</v>
@@ -3014,49 +3014,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>39818</v>
+        <v>39020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>36307</v>
+        <v>43927</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="N7" s="7">
-        <v>76125</v>
+        <v>82948</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,49 +3065,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>1479</v>
+        <v>2803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>765</v>
+        <v>705</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>2244</v>
+        <v>3508</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3131,10 +3131,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3146,10 +3146,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N9" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3169,49 +3169,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>39020</v>
+        <v>39818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>43927</v>
+        <v>36307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>82948</v>
+        <v>76125</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,16 +3220,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2803</v>
+        <v>1479</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>193</v>
@@ -3238,22 +3238,22 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>705</v>
+        <v>765</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>195</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>3508</v>
+        <v>2244</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>196</v>
@@ -3271,10 +3271,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3286,10 +3286,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3301,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3336,7 +3336,7 @@
         <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>188</v>
@@ -3384,7 +3384,7 @@
         <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>208</v>
@@ -3487,7 +3487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987256C2-D55D-4C82-A879-CB3605227315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA01E2D0-52F2-492A-9869-2E8A6FF3A769}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3632,7 +3632,7 @@
         <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7">
         <v>118</v>
@@ -3680,7 +3680,7 @@
         <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>228</v>
@@ -3760,49 +3760,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>81021</v>
+        <v>51987</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7">
+        <v>79</v>
+      </c>
+      <c r="I7" s="7">
+        <v>54175</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H7" s="7">
-        <v>93</v>
-      </c>
-      <c r="I7" s="7">
-        <v>71999</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>150</v>
+      </c>
+      <c r="N7" s="7">
+        <v>106162</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="7">
-        <v>195</v>
-      </c>
-      <c r="N7" s="7">
-        <v>153020</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,49 +3811,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3659</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>428</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>428</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1611</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5270</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3877,10 +3877,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3892,10 +3892,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3915,49 +3915,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>51987</v>
+        <v>81021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="7">
+        <v>93</v>
+      </c>
+      <c r="I10" s="7">
+        <v>71999</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="7">
+        <v>195</v>
+      </c>
+      <c r="N10" s="7">
+        <v>153020</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>79</v>
-      </c>
-      <c r="I10" s="7">
-        <v>54175</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>150</v>
-      </c>
-      <c r="N10" s="7">
-        <v>106162</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,46 +3966,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>3659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1611</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>428</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5270</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>428</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>258</v>
@@ -4017,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4032,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4047,10 +4047,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43936DE7-8407-4597-BFB8-778943317D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DC41F0-85C7-4800-B5E6-91B68301C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EC495F45-3919-4A1E-8D49-AAE6ACB5E677}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7EEBE35C-3699-4057-8B86-A353D2A66925}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="317">
   <si>
     <t>Menores según si ha consumido recostituyentes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,796 +68,928 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>99,12%</t>
   </si>
   <si>
     <t>96,89%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
 </sst>
 </file>
@@ -868,7 +1000,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -964,39 +1096,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1048,7 +1180,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1159,13 +1291,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1174,6 +1299,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1238,19 +1370,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06BC9CB-C62D-4214-BD03-C62945CFD851}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E403F69-E1B4-450D-877D-AC3629248FF9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1367,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>42368</v>
+        <v>726</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1382,10 +1534,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>43817</v>
+        <v>2796</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1397,10 +1549,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>86185</v>
+        <v>3523</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1418,10 +1570,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>4106</v>
+        <v>28929</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1433,10 +1585,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>4104</v>
+        <v>26239</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1448,10 +1600,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="N5" s="7">
-        <v>8210</v>
+        <v>55167</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1469,10 +1621,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1484,10 +1636,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1499,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1522,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>39584</v>
+        <v>6185</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1537,10 +1689,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>31343</v>
+        <v>2040</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1552,10 +1704,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>70927</v>
+        <v>8225</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1573,10 +1725,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>2806</v>
+        <v>44775</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1588,10 +1740,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="I8" s="7">
-        <v>1360</v>
+        <v>41181</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1603,10 +1755,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="N8" s="7">
-        <v>4166</v>
+        <v>85956</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1624,10 +1776,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1639,10 +1791,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1654,10 +1806,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1677,49 +1829,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>51502</v>
+        <v>695</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>628</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>62</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42870</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1323</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>139</v>
-      </c>
-      <c r="N10" s="7">
-        <v>94372</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,49 +1880,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>3553</v>
+        <v>23171</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7">
+        <v>21879</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="7">
+        <v>67</v>
+      </c>
+      <c r="N11" s="7">
+        <v>45050</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1811</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5364</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1794,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1809,10 +1961,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1826,55 +1978,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>133454</v>
+        <v>2858</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1811</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>7</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4669</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>178</v>
-      </c>
-      <c r="I13" s="7">
-        <v>118030</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>378</v>
-      </c>
-      <c r="N13" s="7">
-        <v>251484</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,49 +2035,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
-        <v>10465</v>
+        <v>36580</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7">
+        <v>42</v>
+      </c>
+      <c r="I14" s="7">
+        <v>28732</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>97</v>
+      </c>
+      <c r="N14" s="7">
+        <v>65312</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7275</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>27</v>
-      </c>
-      <c r="N14" s="7">
-        <v>17740</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,55 +2086,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10465</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7275</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="7">
+        <v>27</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17740</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>200</v>
+      </c>
+      <c r="D17" s="7">
+        <v>133454</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="7">
+        <v>178</v>
+      </c>
+      <c r="I17" s="7">
+        <v>118030</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="7">
+        <v>378</v>
+      </c>
+      <c r="N17" s="7">
+        <v>251484</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1995,8 +2308,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8CA3BA-CDA8-4EC8-B0B7-125E4384460C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629230D5-4FF5-41D9-BC9F-054BB38943EC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2012,7 +2325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2113,49 +2426,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>59087</v>
+        <v>4576</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>57225</v>
+        <v>731</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>116313</v>
+        <v>5307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,49 +2477,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>4576</v>
+        <v>33850</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="I5" s="7">
-        <v>1877</v>
+        <v>35766</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
         <v>102</v>
       </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
       <c r="N5" s="7">
-        <v>6453</v>
+        <v>69616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,10 +2528,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>63663</v>
+        <v>38426</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2230,10 +2543,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>59102</v>
+        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2245,10 +2558,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>122766</v>
+        <v>74923</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2268,49 +2581,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>56489</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>42459</v>
+        <v>2311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>98949</v>
+        <v>2311</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,49 +2632,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
-        <v>887</v>
+        <v>66757</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>3308</v>
+        <v>51374</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="N8" s="7">
-        <v>4194</v>
+        <v>118131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,10 +2683,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>57376</v>
+        <v>66757</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2385,10 +2698,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>45767</v>
+        <v>53685</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2400,10 +2713,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="N9" s="7">
-        <v>103143</v>
+        <v>120442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2423,49 +2736,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>36320</v>
+        <v>887</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>40973</v>
+        <v>2844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>77293</v>
+        <v>3731</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,49 +2787,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>607</v>
+        <v>27028</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>1379</v>
+        <v>27026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="N11" s="7">
-        <v>1986</v>
+        <v>54054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,10 +2838,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>36927</v>
+        <v>27915</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2540,10 +2853,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>42352</v>
+        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2555,10 +2868,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="N12" s="7">
-        <v>79279</v>
+        <v>57785</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2572,55 +2885,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>214</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>151896</v>
+        <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>140657</v>
+        <v>678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
-        <v>416</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>292553</v>
+        <v>1285</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,49 +2942,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>6070</v>
+        <v>24261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>6564</v>
+        <v>26491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>12634</v>
+        <v>50752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,55 +2993,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24868</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>39</v>
+      </c>
+      <c r="I15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>75</v>
+      </c>
+      <c r="N15" s="7">
+        <v>52037</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6070</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6564</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>12634</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>214</v>
+      </c>
+      <c r="D17" s="7">
+        <v>151896</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="7">
+        <v>202</v>
+      </c>
+      <c r="I17" s="7">
+        <v>140657</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" s="7">
+        <v>416</v>
+      </c>
+      <c r="N17" s="7">
+        <v>292553</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>222</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>157966</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>212</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>147221</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>434</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>305187</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2741,8 +3215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1221D-20F8-4467-8086-8BBE49E6341A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022C18C8-B2F4-45FF-B7CB-5784CC692DC6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2758,7 +3232,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2859,49 +3333,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>38228</v>
+        <v>1928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>44846</v>
+        <v>910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>83075</v>
+        <v>2837</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,49 +3384,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
-        <v>1928</v>
+        <v>22048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>910</v>
+        <v>26123</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="N5" s="7">
-        <v>2837</v>
+        <v>48172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,10 +3435,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>40156</v>
+        <v>23976</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2976,10 +3450,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
-        <v>45756</v>
+        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2991,10 +3465,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85912</v>
+        <v>51009</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3014,49 +3488,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>39020</v>
+        <v>2209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>43927</v>
+        <v>705</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>82948</v>
+        <v>2915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,49 +3539,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>2803</v>
+        <v>40887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I8" s="7">
-        <v>705</v>
+        <v>41534</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="N8" s="7">
-        <v>3508</v>
+        <v>82420</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,10 +3590,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>41823</v>
+        <v>43096</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3131,10 +3605,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>44632</v>
+        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3146,10 +3620,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="7">
-        <v>86456</v>
+        <v>85335</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3169,49 +3643,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>39818</v>
+        <v>593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>36307</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>76125</v>
+        <v>593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,49 +3694,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>1479</v>
+        <v>32853</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>765</v>
+        <v>36124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>2244</v>
+        <v>68977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,10 +3745,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>41297</v>
+        <v>33446</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3289,7 +3763,7 @@
         <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>37072</v>
+        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3301,10 +3775,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>78369</v>
+        <v>69570</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3318,55 +3792,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>117066</v>
+        <v>1479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>125081</v>
+        <v>765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>242147</v>
+        <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,49 +3849,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>6210</v>
+        <v>21279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I14" s="7">
-        <v>2380</v>
+        <v>21300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="N14" s="7">
-        <v>8590</v>
+        <v>42579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,55 +3900,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>22758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>22065</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>62</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44823</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6210</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2380</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8590</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>170</v>
+      </c>
+      <c r="D17" s="7">
+        <v>117066</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="7">
+        <v>188</v>
+      </c>
+      <c r="I17" s="7">
+        <v>125081</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" s="7">
+        <v>358</v>
+      </c>
+      <c r="N17" s="7">
+        <v>242147</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>179</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>123276</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>192</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>127461</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>371</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>250737</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3487,8 +4122,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA01E2D0-52F2-492A-9869-2E8A6FF3A769}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4BC7D-9110-4493-9BB3-1E3675D9ADCB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3504,7 +4139,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3605,49 +4240,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>33814</v>
+        <v>1689</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>25413</v>
+        <v>785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="M4" s="7">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>59227</v>
+        <v>2475</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,49 +4291,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>2056</v>
+        <v>19246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>785</v>
+        <v>15157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>2841</v>
+        <v>34402</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,40 +4342,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123</v>
-      </c>
       <c r="N6" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3760,49 +4395,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>51987</v>
+        <v>367</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>54175</v>
+        <v>428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>106162</v>
+        <v>795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,49 +4446,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>45635</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>428</v>
+        <v>44316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>428</v>
+        <v>89951</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,10 +4497,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3877,10 +4512,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3892,10 +4527,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3915,49 +4550,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>81021</v>
+        <v>824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>71999</v>
+        <v>828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>153020</v>
+        <v>1652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4601,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>3659</v>
+        <v>42759</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>1611</v>
+        <v>36075</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>5270</v>
+        <v>78834</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,10 +4652,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4032,10 +4667,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4047,10 +4682,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4064,55 +4699,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>166822</v>
+        <v>2834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
-        <v>222</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>151587</v>
+        <v>783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>318409</v>
+        <v>3618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,49 +4756,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>5715</v>
+        <v>59182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="I14" s="7">
-        <v>2825</v>
+        <v>56039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="N14" s="7">
-        <v>8539</v>
+        <v>115221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,55 +4807,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>148</v>
+      </c>
+      <c r="N15" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5715</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2825</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8539</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>241</v>
+      </c>
+      <c r="D17" s="7">
+        <v>166822</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="7">
+        <v>222</v>
+      </c>
+      <c r="I17" s="7">
+        <v>151587</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M17" s="7">
+        <v>463</v>
+      </c>
+      <c r="N17" s="7">
+        <v>318409</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>172537</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>226</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>154412</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>476</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>326948</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DC41F0-85C7-4800-B5E6-91B68301C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8B9F47-7025-4B08-A37C-D5DAAAEC41CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7EEBE35C-3699-4057-8B86-A353D2A66925}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{394E230E-9D00-42BF-98C9-ECBF13F40B42}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="319">
   <si>
     <t>Menores según si ha consumido recostituyentes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,57%</t>
+    <t>11,34%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,55%</t>
   </si>
   <si>
-    <t>87,43%</t>
+    <t>88,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,19 +116,19 @@
     <t>90,37%</t>
   </si>
   <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>12,14%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,37 +197,37 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>12,01%</t>
+    <t>15,43%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>16,87%</t>
+    <t>13,96%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>8,55%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>87,99%</t>
+    <t>84,57%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>83,13%</t>
+    <t>86,04%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>91,31%</t>
+    <t>91,45%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -236,55 +236,55 @@
     <t>7,25%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>7,27%</t>
@@ -293,703 +293,709 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>11,63%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
     <t>98,67%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E403F69-E1B4-450D-877D-AC3629248FF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2505B12A-CCBA-499A-B3C9-AAB80913C2F4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2308,7 +2314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629230D5-4FF5-41D9-BC9F-054BB38943EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBA28B6-4602-4344-82D6-1B1DEFF069C2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2775,10 +2781,10 @@
         <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,10 +2799,10 @@
         <v>27028</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2808,13 +2814,13 @@
         <v>27026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -2823,13 +2829,13 @@
         <v>54054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2903,13 @@
         <v>607</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2912,13 +2918,13 @@
         <v>678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2927,13 +2933,13 @@
         <v>1285</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,10 +2954,10 @@
         <v>24261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -2963,10 +2969,10 @@
         <v>26491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2978,10 +2984,10 @@
         <v>50752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>23</v>
@@ -3052,13 +3058,13 @@
         <v>6070</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3067,13 +3073,13 @@
         <v>6564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -3082,13 +3088,13 @@
         <v>12634</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3109,13 @@
         <v>151896</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>202</v>
@@ -3118,13 +3124,13 @@
         <v>140657</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>416</v>
@@ -3133,13 +3139,13 @@
         <v>292553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,7 +3221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022C18C8-B2F4-45FF-B7CB-5784CC692DC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985A273E-0543-4F98-BB6A-4DDBD2F6C677}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3232,7 +3238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3339,13 +3345,13 @@
         <v>1928</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3354,13 +3360,13 @@
         <v>910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3369,13 +3375,13 @@
         <v>2837</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3396,13 @@
         <v>22048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3405,10 +3411,10 @@
         <v>26123</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3420,13 +3426,13 @@
         <v>48172</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3500,13 @@
         <v>2209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3509,13 +3515,13 @@
         <v>705</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3524,13 +3530,13 @@
         <v>2915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3551,13 @@
         <v>40887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>64</v>
@@ -3560,10 +3566,10 @@
         <v>41534</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -3575,13 +3581,13 @@
         <v>82420</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3655,13 @@
         <v>593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3670,7 +3676,7 @@
         <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3679,13 +3685,13 @@
         <v>593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,10 +3706,10 @@
         <v>32853</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3718,7 +3724,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -3730,10 +3736,10 @@
         <v>68977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>23</v>
@@ -3804,13 +3810,13 @@
         <v>1479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3819,13 +3825,13 @@
         <v>765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3834,13 +3840,13 @@
         <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,10 +3861,10 @@
         <v>21279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3870,10 +3876,10 @@
         <v>21300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3885,13 +3891,13 @@
         <v>42579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3965,13 @@
         <v>6210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3974,13 +3980,13 @@
         <v>2380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3989,13 +3995,13 @@
         <v>8590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4016,13 @@
         <v>117066</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -4025,13 +4031,13 @@
         <v>125081</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>358</v>
@@ -4040,13 +4046,13 @@
         <v>242147</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,7 +4128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4BC7D-9110-4493-9BB3-1E3675D9ADCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987B5287-1322-4A23-8060-A89959E314EF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4139,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4246,13 +4252,13 @@
         <v>1689</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4261,13 +4267,13 @@
         <v>785</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4276,13 +4282,13 @@
         <v>2475</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4303,13 @@
         <v>19246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4312,10 +4318,10 @@
         <v>15157</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4327,13 +4333,13 @@
         <v>34402</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4407,13 @@
         <v>367</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4416,13 +4422,13 @@
         <v>428</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4431,13 +4437,13 @@
         <v>795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +4458,10 @@
         <v>45635</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -4467,10 +4473,10 @@
         <v>44316</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -4482,10 +4488,10 @@
         <v>89951</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>23</v>
@@ -4556,13 +4562,13 @@
         <v>824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4571,13 +4577,13 @@
         <v>828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4586,13 +4592,13 @@
         <v>1652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,10 +4613,10 @@
         <v>42759</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -4622,10 +4628,10 @@
         <v>36075</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -4637,10 +4643,10 @@
         <v>78834</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>23</v>
@@ -4711,13 +4717,13 @@
         <v>2834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4726,13 +4732,13 @@
         <v>783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4741,13 +4747,13 @@
         <v>3618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4768,13 @@
         <v>59182</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -4777,10 +4783,10 @@
         <v>56039</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4792,13 +4798,13 @@
         <v>115221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4872,13 @@
         <v>5715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4881,13 +4887,13 @@
         <v>2825</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4896,13 +4902,13 @@
         <v>8539</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4923,13 @@
         <v>166822</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>222</v>
@@ -4932,13 +4938,13 @@
         <v>151587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
@@ -4947,13 +4953,13 @@
         <v>318409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8B9F47-7025-4B08-A37C-D5DAAAEC41CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6310BC69-D464-431D-A1A3-2F849737869B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{394E230E-9D00-42BF-98C9-ECBF13F40B42}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{2C82765C-6439-46A9-9C0A-7B52A1FE5B95}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si ha consumido recostituyentes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
     <t>2,45%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
+    <t>12,2%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>88,66%</t>
+    <t>87,8%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,208 +137,208 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>17,32%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>8,55%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>82,68%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>91,45%</t>
+    <t>91,14%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -347,52 +347,61 @@
     <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>0%</t>
@@ -401,601 +410,592 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
+    <t>13,01%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>86,99%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>9,99%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>7,59%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>92,41%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>Menores según si ha consumido recostituyentes en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>91,96%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>7,85%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,35%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>92,15%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>95,65%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>23,02%</t>
   </si>
   <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>93,5%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>76,98%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2505B12A-CCBA-499A-B3C9-AAB80913C2F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25117B76-8967-40C0-BF4E-B85382318F34}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>2796</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1540,10 +1540,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2796</v>
+        <v>726</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1576,10 +1576,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>28929</v>
+        <v>26239</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1591,10 +1591,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>26239</v>
+        <v>28929</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1627,25 +1627,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1680,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>6185</v>
+        <v>2040</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1695,10 +1695,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>2040</v>
+        <v>6185</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1731,10 +1731,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>44775</v>
+        <v>41181</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1746,10 +1746,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>41181</v>
+        <v>44775</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1782,25 +1782,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1838,13 +1838,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>695</v>
+        <v>628</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>52</v>
@@ -1853,13 +1853,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>628</v>
+        <v>695</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>54</v>
@@ -1874,7 +1874,7 @@
         <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>56</v>
@@ -1886,10 +1886,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>23171</v>
+        <v>21879</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>57</v>
@@ -1898,13 +1898,13 @@
         <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>21879</v>
+        <v>23171</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -1913,7 +1913,7 @@
         <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -1928,7 +1928,7 @@
         <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,25 +1937,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1990,10 +1990,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2858</v>
+        <v>1811</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>64</v>
@@ -2005,10 +2005,10 @@
         <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>1811</v>
+        <v>2858</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
@@ -2041,10 +2041,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>36580</v>
+        <v>28732</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -2056,10 +2056,10 @@
         <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>28732</v>
+        <v>36580</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
@@ -2092,25 +2092,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2145,10 +2145,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>10465</v>
+        <v>7275</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -2160,10 +2160,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>7275</v>
+        <v>10465</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -2196,10 +2196,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D17" s="7">
-        <v>133454</v>
+        <v>118030</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -2211,10 +2211,10 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="I17" s="7">
-        <v>118030</v>
+        <v>133454</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -2247,25 +2247,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2314,7 +2314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBA28B6-4602-4344-82D6-1B1DEFF069C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C2B9E8-9F72-4A41-A415-BFB677A9C745}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2432,31 +2432,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>4576</v>
+        <v>731</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4576</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>731</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>106</v>
@@ -2483,10 +2483,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>33850</v>
+        <v>35766</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>110</v>
@@ -2495,22 +2495,22 @@
         <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>48</v>
+      </c>
+      <c r="I5" s="7">
+        <v>33850</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="7">
-        <v>54</v>
-      </c>
-      <c r="I5" s="7">
-        <v>35766</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>102</v>
@@ -2534,25 +2534,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36497</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>54</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>38426</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>36497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2587,28 +2587,28 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2311</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2311</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>121</v>
@@ -2638,34 +2638,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>72</v>
+      </c>
+      <c r="D8" s="7">
+        <v>51374</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="7">
         <v>93</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>66757</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7">
-        <v>72</v>
-      </c>
-      <c r="I8" s="7">
-        <v>51374</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>165</v>
@@ -2689,25 +2689,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53685</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>93</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>66757</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53685</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2742,31 +2742,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>887</v>
+        <v>2844</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>2844</v>
+        <v>887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>137</v>
@@ -2796,7 +2796,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>27028</v>
+        <v>27026</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>141</v>
@@ -2805,22 +2805,22 @@
         <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>27026</v>
+        <v>27028</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -2844,25 +2844,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29870</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>39</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27915</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2900,13 +2900,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>607</v>
+        <v>678</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>150</v>
@@ -2915,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>678</v>
+        <v>607</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>152</v>
@@ -2936,7 +2936,7 @@
         <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>154</v>
@@ -2948,10 +2948,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>24261</v>
+        <v>26491</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>155</v>
@@ -2960,13 +2960,13 @@
         <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>26491</v>
+        <v>24261</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>157</v>
@@ -2975,7 +2975,7 @@
         <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -2990,7 +2990,7 @@
         <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,25 +2999,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27169</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>36</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>24868</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>39</v>
-      </c>
-      <c r="I15" s="7">
-        <v>27169</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3052,10 +3052,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>6070</v>
+        <v>6564</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>161</v>
@@ -3067,10 +3067,10 @@
         <v>163</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>6564</v>
+        <v>6070</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>164</v>
@@ -3103,10 +3103,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D17" s="7">
-        <v>151896</v>
+        <v>140657</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>170</v>
@@ -3118,10 +3118,10 @@
         <v>172</v>
       </c>
       <c r="H17" s="7">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="I17" s="7">
-        <v>140657</v>
+        <v>151896</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>173</v>
@@ -3154,25 +3154,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>212</v>
+      </c>
+      <c r="D18" s="7">
+        <v>147221</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>222</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>157966</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147221</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3221,7 +3221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985A273E-0543-4F98-BB6A-4DDBD2F6C677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B985730A-D35B-4B08-8F0A-313D4297E493}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3339,31 +3339,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1928</v>
+        <v>910</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1928</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>910</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>184</v>
@@ -3390,10 +3390,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>22048</v>
+        <v>26123</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>188</v>
@@ -3402,22 +3402,22 @@
         <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22048</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="7">
-        <v>42</v>
-      </c>
-      <c r="I5" s="7">
-        <v>26123</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -3441,25 +3441,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>23976</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3494,34 +3494,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>705</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2209</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>705</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3530,13 +3530,13 @@
         <v>2915</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,34 +3545,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>64</v>
+      </c>
+      <c r="D8" s="7">
+        <v>41534</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
         <v>60</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>40887</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H8" s="7">
-        <v>64</v>
-      </c>
-      <c r="I8" s="7">
-        <v>41534</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>124</v>
@@ -3581,13 +3581,13 @@
         <v>82420</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,25 +3596,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>63</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43096</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3649,34 +3649,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>593</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3685,13 +3685,13 @@
         <v>593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,34 +3700,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
         <v>46</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>32853</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>52</v>
-      </c>
-      <c r="I11" s="7">
-        <v>36124</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -3736,13 +3736,13 @@
         <v>68977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,25 +3751,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33446</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3804,34 +3804,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>765</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1479</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>765</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3840,13 +3840,13 @@
         <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,34 +3855,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>21300</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>21279</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
-      <c r="I14" s="7">
-        <v>21300</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -3891,13 +3891,13 @@
         <v>42579</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,7 +3909,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3924,7 +3924,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3959,34 +3959,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2380</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6210</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2380</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3995,13 +3995,13 @@
         <v>8590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,34 +4010,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>188</v>
+      </c>
+      <c r="D17" s="7">
+        <v>125081</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="7">
         <v>170</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>117066</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" s="7">
-        <v>188</v>
-      </c>
-      <c r="I17" s="7">
-        <v>125081</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>358</v>
@@ -4046,13 +4046,13 @@
         <v>242147</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,25 +4061,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>192</v>
+      </c>
+      <c r="D18" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>179</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4128,7 +4128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987B5287-1322-4A23-8060-A89959E314EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1475ABE-F297-499B-AF95-A5F8778D4DBF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4145,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4246,49 +4246,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>766</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>1689</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>1932</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>785</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2475</v>
+        <v>2698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,49 +4297,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15217</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
         <v>39</v>
       </c>
-      <c r="D5" s="7">
-        <v>19246</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>20425</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H5" s="7">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7">
-        <v>15157</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>34402</v>
+        <v>35642</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,25 +4348,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30</v>
-      </c>
       <c r="I6" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4381,7 +4381,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4404,46 +4404,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,49 +4452,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>71</v>
+      </c>
+      <c r="D8" s="7">
+        <v>46201</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
         <v>74</v>
       </c>
-      <c r="D8" s="7">
-        <v>45635</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>48623</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7">
-        <v>71</v>
-      </c>
-      <c r="I8" s="7">
-        <v>44316</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>89951</v>
+        <v>94824</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,25 +4503,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4536,7 +4536,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4559,46 +4559,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>824</v>
+        <v>941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>828</v>
+        <v>863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>1652</v>
+        <v>1803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,49 +4607,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7">
+        <v>36210</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
         <v>55</v>
       </c>
-      <c r="D11" s="7">
-        <v>42759</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>52</v>
-      </c>
       <c r="I11" s="7">
-        <v>36075</v>
+        <v>45306</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
       </c>
       <c r="N11" s="7">
-        <v>78834</v>
+        <v>81517</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,25 +4658,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4691,7 +4691,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4711,49 +4711,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>768</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
-        <v>2834</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>2925</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>783</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>3618</v>
+        <v>3693</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,49 +4762,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>70</v>
+      </c>
+      <c r="D14" s="7">
+        <v>77189</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7">
         <v>73</v>
       </c>
-      <c r="D14" s="7">
-        <v>59182</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>61767</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H14" s="7">
-        <v>70</v>
-      </c>
-      <c r="I14" s="7">
-        <v>56039</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>143</v>
       </c>
       <c r="N14" s="7">
-        <v>115221</v>
+        <v>138956</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,25 +4813,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>77</v>
       </c>
-      <c r="D15" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>71</v>
-      </c>
       <c r="I15" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4846,7 +4846,7 @@
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4866,28 +4866,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2896</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
-        <v>5715</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>6081</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2825</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>307</v>
@@ -4899,7 +4899,7 @@
         <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>8539</v>
+        <v>8977</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>309</v>
@@ -4908,7 +4908,7 @@
         <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,46 +4917,46 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>222</v>
+      </c>
+      <c r="D17" s="7">
+        <v>174819</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" s="7">
         <v>241</v>
       </c>
-      <c r="D17" s="7">
-        <v>166822</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="7">
-        <v>222</v>
-      </c>
       <c r="I17" s="7">
-        <v>151587</v>
+        <v>176120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
       </c>
       <c r="N17" s="7">
-        <v>318409</v>
+        <v>350939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>318</v>
@@ -4968,25 +4968,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
       <c r="I18" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5001,7 +5001,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
